--- a/data/output/Pedido_Semana_14_2026-02-03_mascotas_vivo.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_mascotas_vivo.xlsx
@@ -622,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>14.95</v>
@@ -688,10 +688,10 @@
         <v>2</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>155.7</v>
@@ -754,10 +754,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>24.95</v>
@@ -886,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="4" t="n">
         <v>8.5</v>
@@ -952,10 +952,10 @@
         <v>2</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>31.8</v>
@@ -1546,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="4" t="n">
         <v>5.45</v>
@@ -1612,10 +1612,10 @@
         <v>2</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="4" t="n">
         <v>9.949999999999999</v>
@@ -1678,10 +1678,10 @@
         <v>13</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N18" s="4" t="n">
         <v>77.40000000000001</v>
@@ -1744,10 +1744,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="4" t="n">
         <v>11.97</v>
@@ -1876,10 +1876,10 @@
         <v>3</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N21" s="4" t="n">
         <v>39.92</v>
@@ -1942,10 +1942,10 @@
         <v>2</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="4" t="n">
         <v>26.6</v>
@@ -2074,10 +2074,10 @@
         <v>2</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="4" t="n">
         <v>29.96</v>
@@ -2272,10 +2272,10 @@
         <v>3</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="4" t="n">
         <v>189.9</v>
@@ -2734,10 +2734,10 @@
         <v>2</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="4" t="n">
         <v>44.75</v>
@@ -2800,10 +2800,10 @@
         <v>2</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="4" t="n">
         <v>29.75</v>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="C40" s="8" t="n">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="C51" s="8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_14_2026-02-03_mascotas_vivo.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_mascotas_vivo.xlsx
@@ -622,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>14.95</v>
@@ -688,10 +688,10 @@
         <v>2</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>155.7</v>
@@ -754,10 +754,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>24.95</v>
@@ -886,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4" t="n">
         <v>8.5</v>
@@ -952,10 +952,10 @@
         <v>2</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>31.8</v>
@@ -1546,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
         <v>5.45</v>
@@ -1612,10 +1612,10 @@
         <v>2</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
         <v>9.949999999999999</v>
@@ -1678,10 +1678,10 @@
         <v>13</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
         <v>77.40000000000001</v>
@@ -1744,10 +1744,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4" t="n">
         <v>11.97</v>
@@ -1876,10 +1876,10 @@
         <v>3</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4" t="n">
         <v>39.92</v>
@@ -1942,10 +1942,10 @@
         <v>2</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4" t="n">
         <v>26.6</v>
@@ -2074,10 +2074,10 @@
         <v>2</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4" t="n">
         <v>29.96</v>
@@ -2272,10 +2272,10 @@
         <v>3</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4" t="n">
         <v>189.9</v>
@@ -2734,10 +2734,10 @@
         <v>2</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
         <v>44.75</v>
@@ -2800,10 +2800,10 @@
         <v>2</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
         <v>29.75</v>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="C40" s="8" t="n">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="C51" s="8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
